--- a/nature_models/results_all_horizons.xlsx
+++ b/nature_models/results_all_horizons.xlsx
@@ -675,17 +675,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.6154</t>
+          <t>0.8942</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.6155</t>
+          <t>0.8757</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.9422</t>
+          <t>0.9921</t>
         </is>
       </c>
     </row>
@@ -899,17 +899,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.5378</t>
+          <t>0.8611</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.693</t>
+          <t>0.8694</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.9409</t>
+          <t>0.989</t>
         </is>
       </c>
     </row>
@@ -1123,17 +1123,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.998</t>
+          <t>0.9995</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.9812</t>
+          <t>0.9927</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.9206</t>
+          <t>0.9871</t>
         </is>
       </c>
     </row>
@@ -1347,17 +1347,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.8071</t>
+          <t>0.947</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.8037</t>
+          <t>0.9359</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.9086</t>
+          <t>0.9843</t>
         </is>
       </c>
     </row>
@@ -1571,17 +1571,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.6142</t>
+          <t>0.8939</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.6075</t>
+          <t>0.8719</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.8172</t>
+          <t>0.9687</t>
         </is>
       </c>
     </row>
@@ -1795,17 +1795,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.5481</t>
+          <t>0.8942</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.7149</t>
+          <t>0.9166</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.9591</t>
+          <t>0.9898</t>
         </is>
       </c>
     </row>
@@ -1859,17 +1859,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.6129</t>
+          <t>0.8304</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.7682</t>
+          <t>0.9024</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.9246</t>
+          <t>0.9942</t>
         </is>
       </c>
     </row>
@@ -1923,17 +1923,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.9987</t>
+          <t>0.9995</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.9858</t>
+          <t>0.9948</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.9208</t>
+          <t>0.9894</t>
         </is>
       </c>
     </row>
@@ -1987,17 +1987,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.7738</t>
+          <t>0.947</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.8543</t>
+          <t>0.9569</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.902</t>
+          <t>0.9892</t>
         </is>
       </c>
     </row>
@@ -2051,17 +2051,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.5475</t>
+          <t>0.8939</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.7086</t>
+          <t>0.9137</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.804</t>
+          <t>0.9783</t>
         </is>
       </c>
     </row>
@@ -2275,17 +2275,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.4038</t>
+          <t>0.9135</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.7245</t>
+          <t>0.9254</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0.9396</t>
+          <t>0.9891</t>
         </is>
       </c>
     </row>
@@ -2339,17 +2339,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.5526</t>
+          <t>0.7787</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.8126</t>
+          <t>0.857</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.9414</t>
+          <t>0.9898</t>
         </is>
       </c>
     </row>
@@ -2403,17 +2403,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.9987</t>
+          <t>0.9995</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.9869</t>
+          <t>0.9932</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0.9224</t>
+          <t>0.9863</t>
         </is>
       </c>
     </row>
@@ -2467,17 +2467,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.7017</t>
+          <t>0.9565</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.8597</t>
+          <t>0.9603</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0.9149</t>
+          <t>0.985</t>
         </is>
       </c>
     </row>
@@ -2531,17 +2531,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.4034</t>
+          <t>0.9131</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.7194</t>
+          <t>0.9207</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.8299</t>
+          <t>0.97</t>
         </is>
       </c>
     </row>
